--- a/output/20251024/Input_Total.xlsx
+++ b/output/20251024/Input_Total.xlsx
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="15">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.6">
@@ -3940,7 +3940,7 @@
         <v>785</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.6">
@@ -3956,7 +3956,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.6">
@@ -3964,7 +3964,7 @@
         <v>172</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.6">
@@ -3980,7 +3980,7 @@
         <v>786</v>
       </c>
       <c r="B11" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:52" ht="17" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -4660,7 +4660,7 @@
         <v>229</v>
       </c>
       <c r="B96" s="10">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:52" x14ac:dyDescent="0.6">
@@ -4668,7 +4668,7 @@
         <v>25</v>
       </c>
       <c r="B97" s="10">
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="98" spans="1:52" x14ac:dyDescent="0.6">
@@ -4676,7 +4676,7 @@
         <v>230</v>
       </c>
       <c r="B98" s="8">
-        <v>0</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="99" spans="1:52" x14ac:dyDescent="0.6">
@@ -4684,7 +4684,7 @@
         <v>231</v>
       </c>
       <c r="B99" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:52" x14ac:dyDescent="0.6">
@@ -4692,7 +4692,7 @@
         <v>232</v>
       </c>
       <c r="B100" s="11">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:52" x14ac:dyDescent="0.6">
@@ -4700,7 +4700,7 @@
         <v>233</v>
       </c>
       <c r="B101" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:52" x14ac:dyDescent="0.6">
@@ -4708,7 +4708,7 @@
         <v>234</v>
       </c>
       <c r="B102" s="8">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:52" x14ac:dyDescent="0.6">
@@ -4716,7 +4716,7 @@
         <v>235</v>
       </c>
       <c r="B103" s="4">
-        <v>0</v>
+        <v>0.03018</v>
       </c>
     </row>
     <row r="104" spans="1:52" x14ac:dyDescent="0.6">
@@ -4724,7 +4724,7 @@
         <v>236</v>
       </c>
       <c r="B104" s="4">
-        <v>0</v>
+        <v>0.03018</v>
       </c>
     </row>
     <row r="105" spans="1:52" x14ac:dyDescent="0.6">
@@ -4732,7 +4732,7 @@
         <v>237</v>
       </c>
       <c r="B105" s="4">
-        <v>0</v>
+        <v>0.0142</v>
       </c>
     </row>
     <row r="106" spans="1:52" x14ac:dyDescent="0.6">
@@ -4740,7 +4740,7 @@
         <v>238</v>
       </c>
       <c r="B106" s="4">
-        <v>0</v>
+        <v>9.779</v>
       </c>
     </row>
     <row r="107" spans="1:52" x14ac:dyDescent="0.6">
@@ -4748,7 +4748,7 @@
         <v>239</v>
       </c>
       <c r="B107" s="4">
-        <v>0</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="108" spans="1:52" x14ac:dyDescent="0.6">
@@ -4756,7 +4756,7 @@
         <v>240</v>
       </c>
       <c r="B108" s="4">
-        <v>0</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="109" spans="1:52" x14ac:dyDescent="0.6">
@@ -4764,7 +4764,7 @@
         <v>241</v>
       </c>
       <c r="B109" s="4">
-        <v>0</v>
+        <v>0.000161</v>
       </c>
     </row>
     <row r="110" spans="1:52" x14ac:dyDescent="0.6">
@@ -4772,7 +4772,7 @@
         <v>242</v>
       </c>
       <c r="B110" s="4">
-        <v>0</v>
+        <v>0.000161</v>
       </c>
     </row>
     <row r="111" spans="1:52" x14ac:dyDescent="0.6">
@@ -4780,7 +4780,7 @@
         <v>243</v>
       </c>
       <c r="B111" s="4">
-        <v>0</v>
+        <v>14.3618</v>
       </c>
     </row>
     <row r="112" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -4788,7 +4788,7 @@
         <v>244</v>
       </c>
       <c r="B112" s="4">
-        <v>0</v>
+        <v>14.3618</v>
       </c>
     </row>
     <row r="113" spans="1:51" ht="16.899999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -5092,7 +5092,7 @@
         <v>279</v>
       </c>
       <c r="B150" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:52" x14ac:dyDescent="0.6">
@@ -5100,7 +5100,7 @@
         <v>280</v>
       </c>
       <c r="B151" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:52" x14ac:dyDescent="0.6">
@@ -5108,7 +5108,7 @@
         <v>281</v>
       </c>
       <c r="B152" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:52" x14ac:dyDescent="0.6">
@@ -5116,7 +5116,7 @@
         <v>282</v>
       </c>
       <c r="B153" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:52" x14ac:dyDescent="0.6">
@@ -5124,7 +5124,7 @@
         <v>283</v>
       </c>
       <c r="B154" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:52" x14ac:dyDescent="0.6">
@@ -5140,7 +5140,7 @@
         <v>285</v>
       </c>
       <c r="B156" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:52" x14ac:dyDescent="0.6">
@@ -5148,7 +5148,7 @@
         <v>286</v>
       </c>
       <c r="B157" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:52" x14ac:dyDescent="0.6">
@@ -5156,7 +5156,7 @@
         <v>287</v>
       </c>
       <c r="B158" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:52" x14ac:dyDescent="0.6">
@@ -5172,7 +5172,7 @@
         <v>289</v>
       </c>
       <c r="B160" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:52" x14ac:dyDescent="0.6">
@@ -5196,7 +5196,7 @@
         <v>290</v>
       </c>
       <c r="B163" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="1:52" x14ac:dyDescent="0.6">
@@ -5204,7 +5204,7 @@
         <v>291</v>
       </c>
       <c r="B164" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="165" spans="1:52" x14ac:dyDescent="0.6">
@@ -5212,7 +5212,7 @@
         <v>292</v>
       </c>
       <c r="B165" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="1:52" x14ac:dyDescent="0.6">
@@ -5220,7 +5220,7 @@
         <v>293</v>
       </c>
       <c r="B166" s="7">
-        <v>0</v>
+        <v>409</v>
       </c>
     </row>
     <row r="167" spans="1:52" x14ac:dyDescent="0.6">
@@ -5228,7 +5228,7 @@
         <v>294</v>
       </c>
       <c r="B167" s="7">
-        <v>0</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="168" spans="1:52" x14ac:dyDescent="0.6">
@@ -5236,7 +5236,7 @@
         <v>295</v>
       </c>
       <c r="B168" s="7">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="169" spans="1:52" x14ac:dyDescent="0.6">
@@ -5244,7 +5244,7 @@
         <v>296</v>
       </c>
       <c r="B169" s="7">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="170" spans="1:52" x14ac:dyDescent="0.6">
@@ -5252,7 +5252,7 @@
         <v>297</v>
       </c>
       <c r="B170" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="171" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -5260,7 +5260,7 @@
         <v>298</v>
       </c>
       <c r="B171" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:52" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -5788,7 +5788,7 @@
         <v>362</v>
       </c>
       <c r="B237" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:52" x14ac:dyDescent="0.6">
@@ -5796,7 +5796,7 @@
         <v>363</v>
       </c>
       <c r="B238" s="14">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="239" spans="1:52" x14ac:dyDescent="0.6">
@@ -5804,7 +5804,7 @@
         <v>364</v>
       </c>
       <c r="B239" s="16">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="240" spans="1:52" x14ac:dyDescent="0.6">
@@ -5812,7 +5812,7 @@
         <v>365</v>
       </c>
       <c r="B240" s="16">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="241" spans="1:51" x14ac:dyDescent="0.6">
@@ -5820,7 +5820,7 @@
         <v>366</v>
       </c>
       <c r="B241" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:51" x14ac:dyDescent="0.6">
@@ -5836,7 +5836,7 @@
         <v>368</v>
       </c>
       <c r="B243" s="5">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="244" spans="1:51" x14ac:dyDescent="0.6">
@@ -5844,7 +5844,7 @@
         <v>369</v>
       </c>
       <c r="B244" s="5">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="245" spans="1:51" x14ac:dyDescent="0.6">
@@ -5852,7 +5852,7 @@
         <v>370</v>
       </c>
       <c r="B245" s="5">
-        <v>0</v>
+        <v>0.05558</v>
       </c>
     </row>
     <row r="246" spans="1:51" x14ac:dyDescent="0.6">
@@ -5860,7 +5860,7 @@
         <v>371</v>
       </c>
       <c r="B246" s="5">
-        <v>0</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="247" spans="1:51" x14ac:dyDescent="0.6">
@@ -5868,7 +5868,7 @@
         <v>372</v>
       </c>
       <c r="B247" s="5">
-        <v>0</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="248" spans="1:51" x14ac:dyDescent="0.6">
@@ -5876,7 +5876,7 @@
         <v>373</v>
       </c>
       <c r="B248" s="5">
-        <v>0</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="249" spans="1:51" x14ac:dyDescent="0.6">
@@ -5884,7 +5884,7 @@
         <v>374</v>
       </c>
       <c r="B249" s="5">
-        <v>0</v>
+        <v>0.000161</v>
       </c>
     </row>
     <row r="250" spans="1:51" x14ac:dyDescent="0.6">
@@ -5892,7 +5892,7 @@
         <v>375</v>
       </c>
       <c r="B250" s="5">
-        <v>0</v>
+        <v>0.000161</v>
       </c>
     </row>
     <row r="251" spans="1:51" x14ac:dyDescent="0.6">
@@ -5900,7 +5900,7 @@
         <v>376</v>
       </c>
       <c r="B251" s="5">
-        <v>0</v>
+        <v>14.3618</v>
       </c>
     </row>
     <row r="252" spans="1:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -5908,7 +5908,7 @@
         <v>377</v>
       </c>
       <c r="B252" s="5">
-        <v>0</v>
+        <v>14.3618</v>
       </c>
     </row>
     <row r="253" spans="1:51" x14ac:dyDescent="0.6">
@@ -5956,7 +5956,7 @@
         <v>383</v>
       </c>
       <c r="B258" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="259" spans="1:52" x14ac:dyDescent="0.6">
@@ -5964,7 +5964,7 @@
         <v>384</v>
       </c>
       <c r="B259" s="14">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="260" spans="1:52" x14ac:dyDescent="0.6">
@@ -5972,7 +5972,7 @@
         <v>385</v>
       </c>
       <c r="B260" s="17">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="261" spans="1:52" x14ac:dyDescent="0.6">
@@ -5980,7 +5980,7 @@
         <v>386</v>
       </c>
       <c r="B261" s="17">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="262" spans="1:52" x14ac:dyDescent="0.6">
@@ -5996,7 +5996,7 @@
         <v>388</v>
       </c>
       <c r="B263" s="5">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="264" spans="1:52" x14ac:dyDescent="0.6">
@@ -6004,7 +6004,7 @@
         <v>389</v>
       </c>
       <c r="B264" s="5">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="265" spans="1:52" x14ac:dyDescent="0.6">
@@ -6012,7 +6012,7 @@
         <v>390</v>
       </c>
       <c r="B265" s="5">
-        <v>0</v>
+        <v>0.05558</v>
       </c>
     </row>
     <row r="266" spans="1:52" x14ac:dyDescent="0.6">
@@ -6020,7 +6020,7 @@
         <v>391</v>
       </c>
       <c r="B266" s="5">
-        <v>0</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="267" spans="1:52" x14ac:dyDescent="0.6">
@@ -6028,7 +6028,7 @@
         <v>392</v>
       </c>
       <c r="B267" s="5">
-        <v>0</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="268" spans="1:52" x14ac:dyDescent="0.6">
@@ -6036,7 +6036,7 @@
         <v>393</v>
       </c>
       <c r="B268" s="5">
-        <v>0</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="269" spans="1:52" x14ac:dyDescent="0.6">
@@ -6044,7 +6044,7 @@
         <v>394</v>
       </c>
       <c r="B269" s="5">
-        <v>0</v>
+        <v>0.000161</v>
       </c>
     </row>
     <row r="270" spans="1:52" x14ac:dyDescent="0.6">
@@ -6052,7 +6052,7 @@
         <v>395</v>
       </c>
       <c r="B270" s="5">
-        <v>0</v>
+        <v>0.000161</v>
       </c>
     </row>
     <row r="271" spans="1:52" x14ac:dyDescent="0.6">
@@ -6060,7 +6060,7 @@
         <v>396</v>
       </c>
       <c r="B271" s="5">
-        <v>0</v>
+        <v>14.3618</v>
       </c>
     </row>
     <row r="272" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -6068,7 +6068,7 @@
         <v>397</v>
       </c>
       <c r="B272" s="5">
-        <v>0</v>
+        <v>14.3618</v>
       </c>
     </row>
     <row r="273" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6116,7 +6116,7 @@
         <v>403</v>
       </c>
       <c r="B278" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="279" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6124,7 +6124,7 @@
         <v>404</v>
       </c>
       <c r="B279" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="280" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6132,7 +6132,7 @@
         <v>405</v>
       </c>
       <c r="B280" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="281" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6140,7 +6140,7 @@
         <v>406</v>
       </c>
       <c r="B281" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="282" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6148,7 +6148,7 @@
         <v>407</v>
       </c>
       <c r="B282" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="283" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6156,7 +6156,7 @@
         <v>408</v>
       </c>
       <c r="B283" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="284" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6164,7 +6164,7 @@
         <v>409</v>
       </c>
       <c r="B284" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="285" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6172,7 +6172,7 @@
         <v>410</v>
       </c>
       <c r="B285" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="286" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6180,7 +6180,7 @@
         <v>411</v>
       </c>
       <c r="B286" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="287" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6188,7 +6188,7 @@
         <v>412</v>
       </c>
       <c r="B287" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="288" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6196,7 +6196,7 @@
         <v>413</v>
       </c>
       <c r="B288" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="289" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6204,7 +6204,7 @@
         <v>414</v>
       </c>
       <c r="B289" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="290" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6212,7 +6212,7 @@
         <v>415</v>
       </c>
       <c r="B290" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="291" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6220,7 +6220,7 @@
         <v>416</v>
       </c>
       <c r="B291" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="292" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6228,7 +6228,7 @@
         <v>417</v>
       </c>
       <c r="B292" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="293" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6236,7 +6236,7 @@
         <v>418</v>
       </c>
       <c r="B293" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="294" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6244,7 +6244,7 @@
         <v>419</v>
       </c>
       <c r="B294" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="295" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6252,7 +6252,7 @@
         <v>420</v>
       </c>
       <c r="B295" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="296" spans="1:51" collapsed="1" x14ac:dyDescent="0.6">
@@ -6260,7 +6260,7 @@
         <v>421</v>
       </c>
       <c r="B296" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:51" x14ac:dyDescent="0.6">
@@ -6268,7 +6268,7 @@
         <v>422</v>
       </c>
       <c r="B297" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="298" spans="1:51" x14ac:dyDescent="0.6">
@@ -6276,7 +6276,7 @@
         <v>423</v>
       </c>
       <c r="B298" s="6">
-        <v>0</v>
+        <v>-36.5</v>
       </c>
     </row>
     <row r="299" spans="1:51" x14ac:dyDescent="0.6">
@@ -6284,7 +6284,7 @@
         <v>424</v>
       </c>
       <c r="B299" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="300" spans="1:51" x14ac:dyDescent="0.6">
@@ -6292,7 +6292,7 @@
         <v>425</v>
       </c>
       <c r="B300" s="13">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="301" spans="1:51" x14ac:dyDescent="0.6">
@@ -6300,7 +6300,7 @@
         <v>426</v>
       </c>
       <c r="B301" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:51" x14ac:dyDescent="0.6">
@@ -6316,7 +6316,7 @@
         <v>427</v>
       </c>
       <c r="B303" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:51" x14ac:dyDescent="0.6">
@@ -6332,7 +6332,7 @@
         <v>429</v>
       </c>
       <c r="B305" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:51" x14ac:dyDescent="0.6">
@@ -6340,7 +6340,7 @@
         <v>430</v>
       </c>
       <c r="B306" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="307" spans="1:51" x14ac:dyDescent="0.6">
@@ -6364,7 +6364,7 @@
         <v>433</v>
       </c>
       <c r="B309" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="310" spans="1:51" x14ac:dyDescent="0.6">
@@ -6372,7 +6372,7 @@
         <v>434</v>
       </c>
       <c r="B310" s="12">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="311" spans="1:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -6380,7 +6380,7 @@
         <v>435</v>
       </c>
       <c r="B311" s="4">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="312" spans="1:51" x14ac:dyDescent="0.6">

--- a/output/20251024/Input_Total.xlsx
+++ b/output/20251024/Input_Total.xlsx
@@ -3900,7 +3900,7 @@
         <v>835</v>
       </c>
       <c r="B1" s="111">
-        <v>1012</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.6">
